--- a/Mifos Automation Excels/Client/4491-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4491-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
@@ -303,7 +303,7 @@
     <t>Group4491</t>
   </si>
   <si>
-    <t>4351-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT</t>
+    <t>4351-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
